--- a/1D_Data.xlsx
+++ b/1D_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweea\.spyder-py3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F248C82A-4680-44EA-A21E-FBD5EDA363F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A417D9B5-FC0D-4698-A724-08597DA6CFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4875" windowWidth="21600" windowHeight="11385" xr2:uid="{1B103B02-75B6-4629-B67A-F766956E151A}"/>
+    <workbookView xWindow="4545" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{1B103B02-75B6-4629-B67A-F766956E151A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Blade_Diameter</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Blade_Scale</t>
+  </si>
+  <si>
+    <t>Force2</t>
   </si>
 </sst>
 </file>
@@ -62,15 +65,99 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -78,12 +165,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDFBC2B-C36F-4B41-872A-F8E546933633}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +674,7 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -424,182 +687,492 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="D2" s="15">
+        <v>3.55</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.52</v>
+      </c>
+      <c r="F2" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="D3" s="17">
+        <v>3.56</v>
+      </c>
+      <c r="E3" s="17">
+        <v>2.63</v>
+      </c>
+      <c r="F3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>75</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2.72</v>
+      </c>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="D5" s="19">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E5" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="D6" s="19">
+        <v>9.52</v>
+      </c>
+      <c r="E6" s="19">
+        <v>6.86</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>100</v>
+      </c>
+      <c r="D7" s="19">
+        <v>9.52</v>
+      </c>
+      <c r="E7" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="30">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="D8" s="31">
+        <v>3.8</v>
+      </c>
+      <c r="E8" s="31">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
+      <c r="D9" s="31">
+        <v>3.79</v>
+      </c>
+      <c r="E9" s="31">
+        <v>2.8</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30">
+        <v>75</v>
+      </c>
+      <c r="D10" s="31">
+        <v>3.82</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2.9</v>
+      </c>
+      <c r="F10" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="32">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
+      <c r="D11" s="33">
+        <v>8.4</v>
+      </c>
+      <c r="E11" s="33">
+        <v>6.63</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="32">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="D12" s="33">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E12" s="33">
+        <v>6.62</v>
+      </c>
+      <c r="F12" s="16">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="34">
+        <v>100</v>
+      </c>
+      <c r="D13" s="35">
+        <v>8.5</v>
+      </c>
+      <c r="E13" s="35">
+        <v>6.66</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="D14" s="36">
+        <v>3.59</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="F14" s="20">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="D15" s="21">
+        <v>3.74</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2.38</v>
+      </c>
+      <c r="F15" s="20">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="20">
+        <v>75</v>
+      </c>
+      <c r="D16" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="F16" s="20">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+      <c r="C17" s="22">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="D17" s="23">
+        <v>8.35</v>
+      </c>
+      <c r="E17" s="23">
+        <v>6.68</v>
+      </c>
+      <c r="F17" s="20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="22">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
+      <c r="D18" s="23">
+        <v>8.39</v>
+      </c>
+      <c r="E18" s="23">
+        <v>6.63</v>
+      </c>
+      <c r="F18" s="20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2</v>
+      </c>
+      <c r="C19" s="22">
+        <v>100</v>
+      </c>
+      <c r="D19" s="23">
+        <v>8.42</v>
+      </c>
+      <c r="E19" s="23">
+        <v>6.63</v>
+      </c>
+      <c r="F19" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="24">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
+      <c r="D20" s="25">
+        <v>3.58</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="F20" s="20">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11">
+        <v>4</v>
+      </c>
+      <c r="C21" s="24">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
+      <c r="D21" s="25">
+        <v>3.56</v>
+      </c>
+      <c r="E21" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="F21" s="20">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
+      <c r="C22" s="24">
+        <v>75</v>
+      </c>
+      <c r="D22" s="25">
+        <v>3.63</v>
+      </c>
+      <c r="E22" s="25">
+        <v>2.82</v>
+      </c>
+      <c r="F22" s="20">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11">
+        <v>4</v>
+      </c>
+      <c r="C23" s="26">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
+      <c r="D23" s="27">
+        <v>8.66</v>
+      </c>
+      <c r="E23" s="27">
+        <v>6.62</v>
+      </c>
+      <c r="F23" s="20">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4</v>
+      </c>
+      <c r="C24" s="26">
         <v>100</v>
       </c>
+      <c r="D24" s="27">
+        <v>8.69</v>
+      </c>
+      <c r="E24" s="27">
+        <v>6.78</v>
+      </c>
+      <c r="F24" s="20">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="12">
+        <v>4</v>
+      </c>
+      <c r="C25" s="28">
+        <v>100</v>
+      </c>
+      <c r="D25" s="29">
+        <v>8.74</v>
+      </c>
+      <c r="E25" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="F25" s="20">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
